--- a/Agile Record.xlsx
+++ b/Agile Record.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\porov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\porov\Desktop\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A09F572-F9AA-4311-8D63-F0B435BE75DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A366FF-C8AF-4FFE-A4E9-458A47E25A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1788,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="A18:I21"/>
+    <sheetView topLeftCell="A13" zoomScale="93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3661,8 +3661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="68" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView topLeftCell="A65" zoomScale="68" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -34566,8 +34566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G996"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:D37"/>
+    <sheetView topLeftCell="A29" zoomScale="110" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -36148,7 +36148,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -36311,7 +36311,7 @@
         <v>46034</v>
       </c>
       <c r="D5" s="53">
-        <v>46048</v>
+        <v>46047</v>
       </c>
       <c r="E5" s="56" t="s">
         <v>57</v>
